--- a/Data list.xlsx
+++ b/Data list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="258">
-  <si>
-    <t>Supplementary Table 1. Characteristics of the populations studied.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="258">
+  <si>
+    <t>Supplementary Table 1. Characteristics of the scRNA-seq and snRNA-seq data of liver and PBMC samples.</t>
   </si>
   <si>
     <t>ID</t>
@@ -98,6 +98,9 @@
     <t>Healthy</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Healthy1</t>
   </si>
   <si>
@@ -183,9 +186,6 @@
   </si>
   <si>
     <t>NASH Boderline</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Boderline NASH</t>
@@ -808,10 +808,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1271,19 +1271,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1416,11 +1416,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1950,25 +1965,25 @@
   <sheetPr/>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.54545454545455" customWidth="1"/>
-    <col min="2" max="2" width="10.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="12.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="17.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="11.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="26.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="49.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="28.7272727272727" customWidth="1"/>
-    <col min="10" max="10" width="36.0909090909091" customWidth="1"/>
-    <col min="12" max="12" width="15.5454545454545" customWidth="1"/>
-    <col min="13" max="13" width="10.0909090909091" customWidth="1"/>
-    <col min="14" max="14" width="15.3636363636364" customWidth="1"/>
-    <col min="15" max="15" width="20.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="3.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="10.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="12.2685185185185" customWidth="1"/>
+    <col min="4" max="4" width="17.2685185185185" customWidth="1"/>
+    <col min="5" max="5" width="11.5462962962963" customWidth="1"/>
+    <col min="6" max="6" width="26.0925925925926" customWidth="1"/>
+    <col min="7" max="7" width="49.7314814814815" customWidth="1"/>
+    <col min="8" max="8" width="28.7314814814815" customWidth="1"/>
+    <col min="10" max="10" width="36.0925925925926" customWidth="1"/>
+    <col min="12" max="12" width="15.5462962962963" customWidth="1"/>
+    <col min="13" max="13" width="10.0925925925926" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.3611111111111" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.7314814814815" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2014,10 +2029,10 @@
       <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O2" t="s">
@@ -2043,7 +2058,7 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>3849</v>
       </c>
       <c r="G3">
@@ -2064,67 +2079,67 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
+      <c r="M3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2222</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.016</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1853</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2222</v>
-      </c>
-      <c r="G4">
-        <v>0.016</v>
-      </c>
-      <c r="H4">
-        <v>1853</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2132,18 +2147,18 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3">
         <v>1512</v>
       </c>
       <c r="G5">
@@ -2153,10 +2168,10 @@
         <v>1001</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
         <v>22</v>
@@ -2164,17 +2179,17 @@
       <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
+      <c r="M5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2182,18 +2197,18 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3">
         <v>6979</v>
       </c>
       <c r="G6">
@@ -2203,10 +2218,10 @@
         <v>4541</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -2214,17 +2229,17 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
+      <c r="M6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2232,18 +2247,18 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3">
         <v>5003</v>
       </c>
       <c r="G7">
@@ -2253,10 +2268,10 @@
         <v>3861</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -2264,17 +2279,17 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
+      <c r="M7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2282,18 +2297,18 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3">
         <v>5187</v>
       </c>
       <c r="G8">
@@ -2303,10 +2318,10 @@
         <v>4839</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
@@ -2314,67 +2329,67 @@
       <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
+      <c r="M8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:16">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4109</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.032</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3562</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4109</v>
-      </c>
-      <c r="G9">
-        <v>0.032</v>
-      </c>
-      <c r="H9">
-        <v>3562</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" t="s">
-        <v>24</v>
+      <c r="P9" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2382,18 +2397,18 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="1">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3">
         <v>9678</v>
       </c>
       <c r="G10">
@@ -2406,7 +2421,7 @@
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
@@ -2414,67 +2429,67 @@
       <c r="L10" t="s">
         <v>22</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
+      <c r="M10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:16">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4">
         <v>9779</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.08</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>8881</v>
       </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M11" t="s">
+      <c r="L11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="M11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P11" t="s">
-        <v>24</v>
+      <c r="P11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2482,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -2493,7 +2508,7 @@
       <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>13368</v>
       </c>
       <c r="G12">
@@ -2503,28 +2518,28 @@
         <v>12133</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
         <v>56</v>
       </c>
-      <c r="M12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" t="s">
-        <v>52</v>
+      <c r="M12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O12" t="s">
         <v>56</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2532,7 +2547,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -2543,7 +2558,7 @@
       <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>9496</v>
       </c>
       <c r="G13">
@@ -2553,28 +2568,28 @@
         <v>7419</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" t="s">
         <v>52</v>
       </c>
-      <c r="N13" t="s">
-        <v>52</v>
+      <c r="M13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2582,7 +2597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -2593,7 +2608,7 @@
       <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>9179</v>
       </c>
       <c r="G14">
@@ -2603,28 +2618,28 @@
         <v>8277</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" t="s">
         <v>52</v>
       </c>
-      <c r="N14" t="s">
-        <v>52</v>
+      <c r="M14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2632,7 +2647,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -2643,7 +2658,7 @@
       <c r="E15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>7623</v>
       </c>
       <c r="G15">
@@ -2653,10 +2668,10 @@
         <v>6998</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
         <v>22</v>
@@ -2664,17 +2679,17 @@
       <c r="L15" t="s">
         <v>22</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
+      <c r="M15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O15" t="s">
         <v>63</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2682,7 +2697,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
@@ -2693,7 +2708,7 @@
       <c r="E16" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>8285</v>
       </c>
       <c r="G16">
@@ -2703,10 +2718,10 @@
         <v>7411</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
         <v>22</v>
@@ -2714,17 +2729,17 @@
       <c r="L16" t="s">
         <v>22</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
+      <c r="M16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O16" t="s">
         <v>63</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2732,7 +2747,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -2743,7 +2758,7 @@
       <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>8951</v>
       </c>
       <c r="G17">
@@ -2753,10 +2768,10 @@
         <v>7987</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
         <v>22</v>
@@ -2764,17 +2779,17 @@
       <c r="L17" t="s">
         <v>22</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
+      <c r="M17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O17" t="s">
         <v>63</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2782,7 +2797,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -2793,7 +2808,7 @@
       <c r="E18" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>9050</v>
       </c>
       <c r="G18">
@@ -2803,28 +2818,28 @@
         <v>8504</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
         <v>56</v>
       </c>
-      <c r="M18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" t="s">
-        <v>52</v>
+      <c r="M18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O18" t="s">
         <v>56</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2832,7 +2847,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
@@ -2843,7 +2858,7 @@
       <c r="E19" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>8574</v>
       </c>
       <c r="G19">
@@ -2853,10 +2868,10 @@
         <v>7739</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
         <v>22</v>
@@ -2864,67 +2879,67 @@
       <c r="L19" t="s">
         <v>22</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
+      <c r="M19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O19" t="s">
         <v>63</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:16">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>980</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>0.008</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>956</v>
       </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N20" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="M20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P20" t="s">
-        <v>24</v>
+      <c r="P20" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2943,7 +2958,7 @@
       <c r="E21" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>8179</v>
       </c>
       <c r="G21">
@@ -2953,28 +2968,28 @@
         <v>5957</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
         <v>77</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
         <v>56</v>
       </c>
-      <c r="M21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" t="s">
-        <v>52</v>
+      <c r="M21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O21" t="s">
         <v>78</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2993,7 +3008,7 @@
       <c r="E22" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>4315</v>
       </c>
       <c r="G22">
@@ -3003,7 +3018,7 @@
         <v>3508</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
         <v>77</v>
@@ -3014,17 +3029,17 @@
       <c r="L22" t="s">
         <v>22</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
+      <c r="M22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O22" t="s">
         <v>81</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3043,7 +3058,7 @@
       <c r="E23" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>13590</v>
       </c>
       <c r="G23">
@@ -3064,17 +3079,17 @@
       <c r="L23" t="s">
         <v>22</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
+      <c r="M23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O23" t="s">
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3093,7 +3108,7 @@
       <c r="E24" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <v>14701</v>
       </c>
       <c r="G24">
@@ -3114,17 +3129,17 @@
       <c r="L24" t="s">
         <v>22</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
+      <c r="M24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O24" t="s">
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3143,7 +3158,7 @@
       <c r="E25" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>16589</v>
       </c>
       <c r="G25">
@@ -3164,17 +3179,17 @@
       <c r="L25" t="s">
         <v>22</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
+      <c r="M25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O25" t="s">
         <v>92</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3193,7 +3208,7 @@
       <c r="E26" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>7423</v>
       </c>
       <c r="G26">
@@ -3209,22 +3224,22 @@
         <v>85</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L26" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O26" t="s">
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3243,7 +3258,7 @@
       <c r="E27" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>5129</v>
       </c>
       <c r="G27">
@@ -3264,17 +3279,17 @@
       <c r="L27" t="s">
         <v>22</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
+      <c r="M27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O27" t="s">
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3293,7 +3308,7 @@
       <c r="E28" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>12659</v>
       </c>
       <c r="G28">
@@ -3303,7 +3318,7 @@
         <v>9432</v>
       </c>
       <c r="I28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J28" t="s">
         <v>85</v>
@@ -3314,17 +3329,17 @@
       <c r="L28" t="s">
         <v>22</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
+      <c r="M28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O28" t="s">
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3343,7 +3358,7 @@
       <c r="E29" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>7420</v>
       </c>
       <c r="G29">
@@ -3353,7 +3368,7 @@
         <v>6513</v>
       </c>
       <c r="I29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
         <v>85</v>
@@ -3364,17 +3379,17 @@
       <c r="L29" t="s">
         <v>22</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
+      <c r="M29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O29" t="s">
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3393,7 +3408,7 @@
       <c r="E30" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>8494</v>
       </c>
       <c r="G30">
@@ -3403,7 +3418,7 @@
         <v>6690</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
         <v>85</v>
@@ -3414,17 +3429,17 @@
       <c r="L30" t="s">
         <v>22</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
+      <c r="M30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O30" t="s">
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3443,7 +3458,7 @@
       <c r="E31" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>8850</v>
       </c>
       <c r="G31">
@@ -3453,7 +3468,7 @@
         <v>6565</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
         <v>85</v>
@@ -3464,17 +3479,17 @@
       <c r="L31" t="s">
         <v>22</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
+      <c r="M31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O31" t="s">
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3493,7 +3508,7 @@
       <c r="E32" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>6778</v>
       </c>
       <c r="G32">
@@ -3503,28 +3518,28 @@
         <v>6473</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s">
         <v>116</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
-      </c>
-      <c r="M32">
+        <v>51</v>
+      </c>
+      <c r="M32" s="2">
         <v>2</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="2">
         <v>0</v>
       </c>
       <c r="O32" t="s">
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3543,7 +3558,7 @@
       <c r="E33" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="3">
         <v>2134</v>
       </c>
       <c r="G33">
@@ -3553,28 +3568,28 @@
         <v>1068</v>
       </c>
       <c r="I33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J33" t="s">
         <v>116</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L33" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33">
+        <v>51</v>
+      </c>
+      <c r="M33" s="2">
         <v>1</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="2">
         <v>0</v>
       </c>
       <c r="O33" t="s">
         <v>120</v>
       </c>
       <c r="P33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3593,7 +3608,7 @@
       <c r="E34" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="3">
         <v>6037</v>
       </c>
       <c r="G34">
@@ -3603,28 +3618,28 @@
         <v>5448</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
         <v>116</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L34" t="s">
         <v>123</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="2">
         <v>4</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="2">
         <v>4</v>
       </c>
       <c r="O34" t="s">
         <v>124</v>
       </c>
       <c r="P34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3643,7 +3658,7 @@
       <c r="E35" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="3">
         <v>1749</v>
       </c>
       <c r="G35">
@@ -3653,28 +3668,28 @@
         <v>1375</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
         <v>116</v>
       </c>
       <c r="K35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L35" t="s">
-        <v>50</v>
-      </c>
-      <c r="M35">
+        <v>51</v>
+      </c>
+      <c r="M35" s="2">
         <v>1</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="2">
         <v>2</v>
       </c>
       <c r="O35" t="s">
         <v>127</v>
       </c>
       <c r="P35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3693,7 +3708,7 @@
       <c r="E36" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="3">
         <v>7113</v>
       </c>
       <c r="G36">
@@ -3703,28 +3718,28 @@
         <v>6741</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J36" t="s">
         <v>116</v>
       </c>
       <c r="K36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L36" t="s">
         <v>56</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="2">
         <v>3</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="2">
         <v>1</v>
       </c>
       <c r="O36" t="s">
         <v>130</v>
       </c>
       <c r="P36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3753,28 +3768,28 @@
         <v>349</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
         <v>116</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L37" t="s">
         <v>56</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="2">
         <v>6</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="2">
         <v>1</v>
       </c>
       <c r="O37" t="s">
         <v>133</v>
       </c>
       <c r="P37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3793,7 +3808,7 @@
       <c r="E38" t="s">
         <v>137</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="3">
         <v>3411</v>
       </c>
       <c r="G38">
@@ -3814,17 +3829,17 @@
       <c r="L38" t="s">
         <v>22</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
+      <c r="M38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3843,7 +3858,7 @@
       <c r="E39" t="s">
         <v>140</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="3">
         <v>4459</v>
       </c>
       <c r="G39">
@@ -3864,17 +3879,17 @@
       <c r="L39" t="s">
         <v>22</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
+      <c r="M39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3893,7 +3908,7 @@
       <c r="E40" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="3">
         <v>5044</v>
       </c>
       <c r="G40">
@@ -3914,17 +3929,17 @@
       <c r="L40" t="s">
         <v>22</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
+      <c r="M40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O40" t="s">
         <v>144</v>
       </c>
       <c r="P40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3943,7 +3958,7 @@
       <c r="E41" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="3">
         <v>6781</v>
       </c>
       <c r="G41">
@@ -3964,17 +3979,17 @@
       <c r="L41" t="s">
         <v>22</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
+      <c r="M41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3993,7 +4008,7 @@
       <c r="E42" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="3">
         <v>3023</v>
       </c>
       <c r="G42">
@@ -4014,17 +4029,17 @@
       <c r="L42" t="s">
         <v>22</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
+      <c r="M42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O42" t="s">
         <v>151</v>
       </c>
       <c r="P42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -4043,7 +4058,7 @@
       <c r="E43" t="s">
         <v>154</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="3">
         <v>5734</v>
       </c>
       <c r="G43">
@@ -4053,10 +4068,10 @@
         <v>5358</v>
       </c>
       <c r="I43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K43" t="s">
         <v>22</v>
@@ -4064,17 +4079,17 @@
       <c r="L43" t="s">
         <v>22</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
+      <c r="M43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O43" t="s">
         <v>155</v>
       </c>
       <c r="P43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -4093,7 +4108,7 @@
       <c r="E44" t="s">
         <v>158</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="3">
         <v>3820</v>
       </c>
       <c r="G44">
@@ -4103,10 +4118,10 @@
         <v>3590</v>
       </c>
       <c r="I44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K44" t="s">
         <v>22</v>
@@ -4114,17 +4129,17 @@
       <c r="L44" t="s">
         <v>22</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
+      <c r="M44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -4143,7 +4158,7 @@
       <c r="E45" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="3">
         <v>7115</v>
       </c>
       <c r="G45">
@@ -4153,10 +4168,10 @@
         <v>6618</v>
       </c>
       <c r="I45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K45" t="s">
         <v>22</v>
@@ -4164,17 +4179,17 @@
       <c r="L45" t="s">
         <v>22</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
+      <c r="M45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -4193,7 +4208,7 @@
       <c r="E46" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="3">
         <v>4494</v>
       </c>
       <c r="G46">
@@ -4203,10 +4218,10 @@
         <v>4124</v>
       </c>
       <c r="I46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K46" t="s">
         <v>22</v>
@@ -4214,17 +4229,17 @@
       <c r="L46" t="s">
         <v>22</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
+      <c r="M46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O46" t="s">
         <v>144</v>
       </c>
       <c r="P46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4243,7 +4258,7 @@
       <c r="E47" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="3">
         <v>3974</v>
       </c>
       <c r="G47">
@@ -4253,10 +4268,10 @@
         <v>3804</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K47" t="s">
         <v>22</v>
@@ -4264,17 +4279,17 @@
       <c r="L47" t="s">
         <v>22</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
+      <c r="M47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4293,7 +4308,7 @@
       <c r="E48" t="s">
         <v>170</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="3">
         <v>5536</v>
       </c>
       <c r="G48">
@@ -4303,10 +4318,10 @@
         <v>5222</v>
       </c>
       <c r="I48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K48" t="s">
         <v>22</v>
@@ -4314,67 +4329,67 @@
       <c r="L48" t="s">
         <v>22</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
+      <c r="M48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O48" t="s">
         <v>151</v>
       </c>
       <c r="P48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:16">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="1">
+        <v>554</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="H49" s="1">
+        <v>334</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" t="s">
-        <v>171</v>
-      </c>
-      <c r="F49">
-        <v>554</v>
-      </c>
-      <c r="G49">
-        <v>0.004</v>
-      </c>
-      <c r="H49">
-        <v>334</v>
-      </c>
-      <c r="I49" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" t="s">
-        <v>22</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P49" t="s">
-        <v>24</v>
+      <c r="P49" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4382,7 +4397,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
         <v>173</v>
@@ -4393,7 +4408,7 @@
       <c r="E50" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="3">
         <v>3660</v>
       </c>
       <c r="G50">
@@ -4403,10 +4418,10 @@
         <v>3391</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K50" t="s">
         <v>22</v>
@@ -4414,17 +4429,17 @@
       <c r="L50" t="s">
         <v>22</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
+      <c r="M50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O50" t="s">
         <v>144</v>
       </c>
       <c r="P50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4432,7 +4447,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
         <v>175</v>
@@ -4443,7 +4458,7 @@
       <c r="E51" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <v>5153</v>
       </c>
       <c r="G51">
@@ -4453,10 +4468,10 @@
         <v>4087</v>
       </c>
       <c r="I51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K51" t="s">
         <v>22</v>
@@ -4464,17 +4479,17 @@
       <c r="L51" t="s">
         <v>22</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
+      <c r="M51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O51" t="s">
         <v>144</v>
       </c>
       <c r="P51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4482,7 +4497,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
         <v>177</v>
@@ -4493,7 +4508,7 @@
       <c r="E52" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <v>2222</v>
       </c>
       <c r="G52">
@@ -4503,10 +4518,10 @@
         <v>1682</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K52" t="s">
         <v>22</v>
@@ -4514,17 +4529,17 @@
       <c r="L52" t="s">
         <v>22</v>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
+      <c r="M52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O52" t="s">
         <v>144</v>
       </c>
       <c r="P52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4532,7 +4547,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
         <v>179</v>
@@ -4543,7 +4558,7 @@
       <c r="E53" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="3">
         <v>6230</v>
       </c>
       <c r="G53">
@@ -4553,10 +4568,10 @@
         <v>5341</v>
       </c>
       <c r="I53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K53" t="s">
         <v>22</v>
@@ -4564,17 +4579,17 @@
       <c r="L53" t="s">
         <v>22</v>
       </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
+      <c r="M53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O53" t="s">
         <v>151</v>
       </c>
       <c r="P53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4582,7 +4597,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
         <v>181</v>
@@ -4593,7 +4608,7 @@
       <c r="E54" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="3">
         <v>2904</v>
       </c>
       <c r="G54">
@@ -4603,28 +4618,28 @@
         <v>2384</v>
       </c>
       <c r="I54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L54" t="s">
         <v>123</v>
       </c>
-      <c r="M54" t="s">
-        <v>52</v>
-      </c>
-      <c r="N54">
-        <v>4</v>
+      <c r="M54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O54" t="s">
         <v>183</v>
       </c>
       <c r="P54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4632,7 +4647,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
         <v>184</v>
@@ -4643,7 +4658,7 @@
       <c r="E55" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="3">
         <v>2437</v>
       </c>
       <c r="G55">
@@ -4653,28 +4668,28 @@
         <v>1802</v>
       </c>
       <c r="I55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L55" t="s">
         <v>123</v>
       </c>
-      <c r="M55" t="s">
-        <v>52</v>
-      </c>
-      <c r="N55">
-        <v>4</v>
+      <c r="M55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O55" t="s">
         <v>183</v>
       </c>
       <c r="P55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4682,7 +4697,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
         <v>186</v>
@@ -4693,7 +4708,7 @@
       <c r="E56" t="s">
         <v>186</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="3">
         <v>2683</v>
       </c>
       <c r="G56">
@@ -4703,28 +4718,28 @@
         <v>1976</v>
       </c>
       <c r="I56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L56" t="s">
         <v>123</v>
       </c>
-      <c r="M56" t="s">
-        <v>52</v>
-      </c>
-      <c r="N56">
-        <v>4</v>
+      <c r="M56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O56" t="s">
         <v>183</v>
       </c>
       <c r="P56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4732,7 +4747,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
         <v>188</v>
@@ -4743,7 +4758,7 @@
       <c r="E57" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="3">
         <v>10567</v>
       </c>
       <c r="G57">
@@ -4753,28 +4768,28 @@
         <v>9191</v>
       </c>
       <c r="I57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L57" t="s">
         <v>123</v>
       </c>
-      <c r="M57" t="s">
-        <v>52</v>
-      </c>
-      <c r="N57">
-        <v>4</v>
+      <c r="M57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O57" t="s">
         <v>190</v>
       </c>
       <c r="P57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4782,7 +4797,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
         <v>191</v>
@@ -4793,7 +4808,7 @@
       <c r="E58" t="s">
         <v>191</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="3">
         <v>9690</v>
       </c>
       <c r="G58">
@@ -4809,22 +4824,22 @@
         <v>85</v>
       </c>
       <c r="K58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L58" t="s">
         <v>123</v>
       </c>
-      <c r="M58" t="s">
-        <v>52</v>
-      </c>
-      <c r="N58">
-        <v>4</v>
+      <c r="M58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O58" t="s">
         <v>183</v>
       </c>
       <c r="P58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4832,7 +4847,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
         <v>193</v>
@@ -4843,7 +4858,7 @@
       <c r="E59" t="s">
         <v>193</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="3">
         <v>8797</v>
       </c>
       <c r="G59">
@@ -4859,72 +4874,72 @@
         <v>85</v>
       </c>
       <c r="K59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L59" t="s">
         <v>123</v>
       </c>
-      <c r="M59" t="s">
-        <v>52</v>
-      </c>
-      <c r="N59">
-        <v>4</v>
+      <c r="M59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O59" t="s">
         <v>195</v>
       </c>
       <c r="P59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:16">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="4">
         <v>7590</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <v>0.064</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <v>6889</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K60" t="s">
-        <v>50</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="K60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M60" t="s">
-        <v>52</v>
-      </c>
-      <c r="N60">
-        <v>4</v>
-      </c>
-      <c r="O60" t="s">
+      <c r="M60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="P60" t="s">
-        <v>24</v>
+      <c r="P60" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4943,7 +4958,7 @@
       <c r="E61" t="s">
         <v>199</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="3">
         <v>15935</v>
       </c>
       <c r="G61">
@@ -4953,21 +4968,21 @@
         <v>14266</v>
       </c>
       <c r="I61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J61" t="s">
         <v>85</v>
       </c>
       <c r="K61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L61" t="s">
         <v>56</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="2">
         <v>6</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="2">
         <v>3</v>
       </c>
       <c r="O61" t="s">
@@ -4993,7 +5008,7 @@
       <c r="E62" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="3">
         <v>34199</v>
       </c>
       <c r="G62">
@@ -5003,21 +5018,21 @@
         <v>27662</v>
       </c>
       <c r="I62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J62" t="s">
         <v>85</v>
       </c>
       <c r="K62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L62" t="s">
         <v>56</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="2">
         <v>5</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="2">
         <v>2</v>
       </c>
       <c r="O62" t="s">
@@ -5043,7 +5058,7 @@
       <c r="E63" t="s">
         <v>204</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="3">
         <v>6801</v>
       </c>
       <c r="G63">
@@ -5053,21 +5068,21 @@
         <v>5705</v>
       </c>
       <c r="I63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J63" t="s">
         <v>85</v>
       </c>
       <c r="K63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L63" t="s">
         <v>56</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="2">
         <v>2</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="2">
         <v>2</v>
       </c>
       <c r="O63" t="s">
@@ -5093,7 +5108,7 @@
       <c r="E64" t="s">
         <v>207</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="3">
         <v>6083</v>
       </c>
       <c r="G64">
@@ -5103,21 +5118,21 @@
         <v>3696</v>
       </c>
       <c r="I64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J64" t="s">
         <v>85</v>
       </c>
       <c r="K64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L64" t="s">
         <v>56</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="2">
         <v>2</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="2">
         <v>2</v>
       </c>
       <c r="O64" t="s">
@@ -5143,7 +5158,7 @@
       <c r="E65" t="s">
         <v>209</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="3">
         <v>3946</v>
       </c>
       <c r="G65">
@@ -5153,21 +5168,21 @@
         <v>2990</v>
       </c>
       <c r="I65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J65" t="s">
         <v>85</v>
       </c>
       <c r="K65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L65" t="s">
         <v>56</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="2">
         <v>2</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="2">
         <v>2</v>
       </c>
       <c r="O65" t="s">
@@ -5193,7 +5208,7 @@
       <c r="E66" t="s">
         <v>211</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="3">
         <v>3847</v>
       </c>
       <c r="G66">
@@ -5203,21 +5218,21 @@
         <v>3152</v>
       </c>
       <c r="I66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J66" t="s">
         <v>85</v>
       </c>
       <c r="K66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L66" t="s">
         <v>56</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="2">
         <v>2</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="2">
         <v>2</v>
       </c>
       <c r="O66" t="s">
@@ -5243,7 +5258,7 @@
       <c r="E67" t="s">
         <v>213</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="3">
         <v>7251</v>
       </c>
       <c r="G67">
@@ -5253,21 +5268,21 @@
         <v>5974</v>
       </c>
       <c r="I67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J67" t="s">
         <v>85</v>
       </c>
       <c r="K67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L67" t="s">
         <v>56</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="2">
         <v>1</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="2">
         <v>1</v>
       </c>
       <c r="O67" t="s">
@@ -5293,7 +5308,7 @@
       <c r="E68" t="s">
         <v>216</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="3">
         <v>6188</v>
       </c>
       <c r="G68">
@@ -5303,21 +5318,21 @@
         <v>3946</v>
       </c>
       <c r="I68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J68" t="s">
         <v>85</v>
       </c>
       <c r="K68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L68" t="s">
         <v>56</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="2">
         <v>1</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="2">
         <v>1</v>
       </c>
       <c r="O68" t="s">
@@ -5343,7 +5358,7 @@
       <c r="E69" t="s">
         <v>218</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="3">
         <v>4634</v>
       </c>
       <c r="G69">
@@ -5353,21 +5368,21 @@
         <v>4411</v>
       </c>
       <c r="I69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J69" t="s">
         <v>85</v>
       </c>
       <c r="K69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L69" t="s">
         <v>56</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="2">
         <v>1</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="2">
         <v>1</v>
       </c>
       <c r="O69" t="s">
@@ -5393,7 +5408,7 @@
       <c r="E70" t="s">
         <v>220</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="3">
         <v>6783</v>
       </c>
       <c r="G70">
@@ -5403,21 +5418,21 @@
         <v>6420</v>
       </c>
       <c r="I70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J70" t="s">
         <v>85</v>
       </c>
       <c r="K70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L70" t="s">
         <v>56</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="2">
         <v>1</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="2">
         <v>1</v>
       </c>
       <c r="O70" t="s">
@@ -5443,7 +5458,7 @@
       <c r="E71" t="s">
         <v>223</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="3">
         <v>6128</v>
       </c>
       <c r="G71">
@@ -5453,21 +5468,21 @@
         <v>5791</v>
       </c>
       <c r="I71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J71" t="s">
         <v>85</v>
       </c>
       <c r="K71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L71" t="s">
         <v>56</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="2">
         <v>1</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="2">
         <v>1</v>
       </c>
       <c r="O71" t="s">
@@ -5493,7 +5508,7 @@
       <c r="E72" t="s">
         <v>225</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="3">
         <v>5834</v>
       </c>
       <c r="G72">
@@ -5503,21 +5518,21 @@
         <v>3395</v>
       </c>
       <c r="I72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J72" t="s">
         <v>85</v>
       </c>
       <c r="K72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L72" t="s">
         <v>56</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="2">
         <v>5</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="2">
         <v>1</v>
       </c>
       <c r="O72" t="s">
@@ -5543,7 +5558,7 @@
       <c r="E73" t="s">
         <v>228</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="3">
         <v>11544</v>
       </c>
       <c r="G73">
@@ -5553,21 +5568,21 @@
         <v>10956</v>
       </c>
       <c r="I73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J73" t="s">
         <v>85</v>
       </c>
       <c r="K73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L73" t="s">
         <v>56</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="2">
         <v>5</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="2">
         <v>1</v>
       </c>
       <c r="O73" t="s">
@@ -5593,7 +5608,7 @@
       <c r="E74" t="s">
         <v>230</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="3">
         <v>12459</v>
       </c>
       <c r="G74">
@@ -5603,7 +5618,7 @@
         <v>11585</v>
       </c>
       <c r="I74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J74" t="s">
         <v>85</v>
@@ -5614,10 +5629,10 @@
       <c r="L74" t="s">
         <v>22</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="2">
         <v>0</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="2">
         <v>0</v>
       </c>
       <c r="O74" t="s">
@@ -5643,7 +5658,7 @@
       <c r="E75" t="s">
         <v>233</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="3">
         <v>10701</v>
       </c>
       <c r="G75">
@@ -5653,21 +5668,21 @@
         <v>9708</v>
       </c>
       <c r="I75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J75" t="s">
         <v>85</v>
       </c>
       <c r="K75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L75" t="s">
         <v>56</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="2">
         <v>5</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="2">
         <v>2</v>
       </c>
       <c r="O75" t="s">
@@ -5693,7 +5708,7 @@
       <c r="E76" t="s">
         <v>236</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="3">
         <v>18816</v>
       </c>
       <c r="G76">
@@ -5703,21 +5718,21 @@
         <v>15986</v>
       </c>
       <c r="I76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J76" t="s">
         <v>85</v>
       </c>
       <c r="K76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L76" t="s">
         <v>56</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="2">
         <v>7</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="2">
         <v>3</v>
       </c>
       <c r="O76" t="s">
@@ -5743,7 +5758,7 @@
       <c r="E77" t="s">
         <v>239</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="3">
         <v>12755</v>
       </c>
       <c r="G77">
@@ -5753,7 +5768,7 @@
         <v>11505</v>
       </c>
       <c r="I77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J77" t="s">
         <v>85</v>
@@ -5764,10 +5779,10 @@
       <c r="L77" t="s">
         <v>22</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="2">
         <v>0</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="2">
         <v>0</v>
       </c>
       <c r="O77" t="s">
@@ -5793,7 +5808,7 @@
       <c r="E78" t="s">
         <v>242</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="3">
         <v>44599</v>
       </c>
       <c r="G78">
@@ -5803,7 +5818,7 @@
         <v>36695</v>
       </c>
       <c r="I78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J78" t="s">
         <v>85</v>
@@ -5814,10 +5829,10 @@
       <c r="L78" t="s">
         <v>22</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="2">
         <v>0</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="2">
         <v>0</v>
       </c>
       <c r="O78" t="s">
@@ -5843,7 +5858,7 @@
       <c r="E79" t="s">
         <v>246</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="3">
         <v>1959</v>
       </c>
       <c r="G79">
@@ -5856,7 +5871,7 @@
         <v>20</v>
       </c>
       <c r="J79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K79" t="s">
         <v>22</v>
@@ -5864,17 +5879,17 @@
       <c r="L79" t="s">
         <v>22</v>
       </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
+      <c r="M79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5893,7 +5908,7 @@
       <c r="E80" t="s">
         <v>248</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="3">
         <v>7424</v>
       </c>
       <c r="G80">
@@ -5903,10 +5918,10 @@
         <v>6854</v>
       </c>
       <c r="I80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K80" t="s">
         <v>22</v>
@@ -5914,17 +5929,17 @@
       <c r="L80" t="s">
         <v>22</v>
       </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
+      <c r="M80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5943,7 +5958,7 @@
       <c r="E81" t="s">
         <v>250</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="3">
         <v>8262</v>
       </c>
       <c r="G81">
@@ -5956,7 +5971,7 @@
         <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K81" t="s">
         <v>22</v>
@@ -5964,17 +5979,17 @@
       <c r="L81" t="s">
         <v>22</v>
       </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
+      <c r="M81" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5993,7 +6008,7 @@
       <c r="E82" t="s">
         <v>252</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="3">
         <v>13006</v>
       </c>
       <c r="G82">
@@ -6003,10 +6018,10 @@
         <v>11402</v>
       </c>
       <c r="I82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K82" t="s">
         <v>22</v>
@@ -6014,17 +6029,17 @@
       <c r="L82" t="s">
         <v>22</v>
       </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
+      <c r="M82" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -6043,7 +6058,7 @@
       <c r="E83" t="s">
         <v>254</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="3">
         <v>10144</v>
       </c>
       <c r="G83">
@@ -6056,7 +6071,7 @@
         <v>20</v>
       </c>
       <c r="J83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K83" t="s">
         <v>22</v>
@@ -6064,17 +6079,17 @@
       <c r="L83" t="s">
         <v>22</v>
       </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
+      <c r="M83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O83" t="s">
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -6093,7 +6108,7 @@
       <c r="E84" t="s">
         <v>256</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="3">
         <v>12497</v>
       </c>
       <c r="G84">
@@ -6103,10 +6118,10 @@
         <v>10703</v>
       </c>
       <c r="I84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K84" t="s">
         <v>22</v>
@@ -6114,20 +6129,23 @@
       <c r="L84" t="s">
         <v>22</v>
       </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
+      <c r="M84" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:P84">
+    <sortCondition ref="A3"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
